--- a/Data/aearep-308/candidatepackages.xlsx
+++ b/Data/aearep-308/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,15 +22,9 @@
     <t>outreg2</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>ivreg2</t>
   </si>
   <si>
-    <t>unique</t>
-  </si>
-  <si>
     <t>ranktest</t>
   </si>
   <si>
@@ -40,12 +34,6 @@
     <t>gtools</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>cluster</t>
   </si>
   <si>
@@ -55,15 +43,6 @@
     <t>samplesize</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>Package popularity (rank out of total # of packages)</t>
   </si>
   <si>
@@ -76,21 +55,12 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-308</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-308/115367</t>
   </si>
   <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
     <t>FMS_Reply_Table1.do</t>
   </si>
   <si>
@@ -101,9 +71,6 @@
   </si>
   <si>
     <t>FMS_Stata_Setup.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
   </si>
 </sst>
 </file>
@@ -147,7 +114,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D9"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -155,13 +122,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
@@ -169,7 +136,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -181,7 +148,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -193,7 +160,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -205,7 +172,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -217,7 +184,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -229,10 +196,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>49</v>
+        <v>563</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D7"/>
     </row>
@@ -241,10 +208,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>54</v>
+        <v>1125</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.37190082669258118</v>
       </c>
       <c r="D8"/>
     </row>
@@ -253,96 +220,12 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>267</v>
+        <v>1596</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.52760332822799683</v>
       </c>
       <c r="D9"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>279</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>566</v>
-      </c>
-      <c r="C11">
-        <v>0.18766577541828156</v>
-      </c>
-      <c r="D11"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1194</v>
-      </c>
-      <c r="C12">
-        <v>0.39588859677314758</v>
-      </c>
-      <c r="D12"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1568</v>
-      </c>
-      <c r="C13">
-        <v>0.51989388465881348</v>
-      </c>
-      <c r="D13"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1798</v>
-      </c>
-      <c r="C14">
-        <v>0.5961538553237915</v>
-      </c>
-      <c r="D14"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1817</v>
-      </c>
-      <c r="C15">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D15"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1859</v>
-      </c>
-      <c r="C16">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D16"/>
     </row>
   </sheetData>
 </worksheet>
@@ -350,71 +233,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Data/aearep-308/candidatepackages.xlsx
+++ b/Data/aearep-308/candidatepackages.xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rschfs1x\userRS\K-Q\lr397_RS\Documents\AEA_workspace\FunPackageSearch\Statapackagesearch\Data\aearep-308\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2A5205-39B5-4E7F-8CCA-F4189E70375A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Missing packages" sheetId="1" r:id="rId2"/>
-    <sheet name="Programs parsed" sheetId="2" r:id="rId4"/>
+    <sheet name="Missing packages" sheetId="1" r:id="rId1"/>
+    <sheet name="Programs parsed" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -76,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -109,15 +116,325 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -131,7 +448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -141,9 +458,11 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2"/>
-    </row>
-    <row r="3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -153,9 +472,11 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3"/>
-    </row>
-    <row r="4">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -165,9 +486,11 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4"/>
-    </row>
-    <row r="5">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -177,9 +500,11 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5"/>
-    </row>
-    <row r="6">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -189,9 +514,11 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6"/>
-    </row>
-    <row r="7">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -201,9 +528,11 @@
       <c r="C7">
         <v>0.18611569702625275</v>
       </c>
-      <c r="D7"/>
-    </row>
-    <row r="8">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -213,9 +542,11 @@
       <c r="C8">
         <v>0.37190082669258118</v>
       </c>
-      <c r="D8"/>
-    </row>
-    <row r="9">
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -225,18 +556,24 @@
       <c r="C9">
         <v>0.52760332822799683</v>
       </c>
-      <c r="D9"/>
+      <c r="D9">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -244,7 +581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -252,7 +589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -260,7 +597,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -268,7 +605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -277,5 +614,6 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>